--- a/biology/Biochimie/Globuline/Globuline.xlsx
+++ b/biology/Biochimie/Globuline/Globuline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une globuline désigne une protéine globulaire qui fait partie des grains d'aleurone dans les graines des plantes (édestine (en), légumine, viciline)[1], ou d'un des deux types de protéines sériques, l'autre étant l'albumine. Cette appellation générique recouvre un groupe hétérogène de familles de protéines, de plus grande taille et moins solubles dans l'eau pure que l'albumine. Elles appartiennent à la famille des protéines globulaires.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une globuline désigne une protéine globulaire qui fait partie des grains d'aleurone dans les graines des plantes (édestine (en), légumine, viciline), ou d'un des deux types de protéines sériques, l'autre étant l'albumine. Cette appellation générique recouvre un groupe hétérogène de familles de protéines, de plus grande taille et moins solubles dans l'eau pure que l'albumine. Elles appartiennent à la famille des protéines globulaires.
 On les différencie également lors d'une électrophorèse des protéines sériques, où elles migrent moins que l'albumine. On peut également les subdiviser en quatre groupes :
 alpha-1-globulines ;
 alpha-2-globulines ;
@@ -516,7 +528,9 @@
           <t>Alpha-1-globulines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>alpha-1-antitrypsine
 alpha-1-antichymotrypsine
@@ -552,7 +566,9 @@
           <t>Alpha-2-globulines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>céruloplasmine
 antithrombine III
@@ -589,7 +605,9 @@
           <t>Bêtaglobulines</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bêta-1-globulines :
 Lipoprotéine (LDL)
@@ -598,7 +616,7 @@
 Fibrinogène
 Globuline liant les stéroïdes sexuels
 Transcobalamine (en)
-Protéine C réactive (en interzone Beta-Gamma)[2].</t>
+Protéine C réactive (en interzone Beta-Gamma).</t>
         </is>
       </c>
     </row>
@@ -626,7 +644,9 @@
           <t>Gammaglobulines (ou immunoglobulines)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>IgG
 IgA
